--- a/Reports/Linux/manual/FireFoxmanualTest.xlsx
+++ b/Reports/Linux/manual/FireFoxmanualTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -90,7 +90,7 @@
     <t>Firefox manual</t>
   </si>
   <si>
-    <t>Run project and make sure geckodriver.exe is the latest version</t>
+    <t>Run project and make sure geckodriver is the latest version</t>
   </si>
   <si>
     <t>hbkcntt&lt;hbkcntt@gmail.com&gt;</t>
@@ -102,7 +102,10 @@
     <t>12/22/21 08:52:05</t>
   </si>
   <si>
-    <t>c2be794f7301df1bd8946c84b9a30a47e634e8da</t>
+    <t>12/22/21 09:03:35</t>
+  </si>
+  <si>
+    <t>60fae1ae809c88f7459fa093ef91050d1d7896ba</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,20 +116,23 @@
     <t>Webdriver and corresponding Firefox browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">Merge branch 'main' of https://github.com/lgjp-open-source/TestManagementSample into main
+    <t xml:space="preserve">- Add Linux test results
 </t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Not executed</t>
+    <t>Pass</t>
   </si>
   <si>
     <t>Run mvn test.</t>
   </si>
   <si>
-    <t>Test run successfully and geckodriver.exe is the lastest version</t>
+    <t>Test run successfully and geckodriver is the lastest version</t>
+  </si>
+  <si>
+    <t>As expected: geckodriver is the latest version</t>
   </si>
 </sst>
 </file>
@@ -639,13 +645,13 @@
         <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -653,19 +659,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -681,19 +687,19 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44551.58804398148</v>
+        <v>44551.62971064815</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -729,19 +735,19 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">

--- a/Reports/Linux/manual/FireFoxmanualTest.xlsx
+++ b/Reports/Linux/manual/FireFoxmanualTest.xlsx
@@ -105,7 +105,7 @@
     <t>12/22/21 09:03:35</t>
   </si>
   <si>
-    <t>60fae1ae809c88f7459fa093ef91050d1d7896ba</t>
+    <t>dc6a09580669a478296c8f6d5f682cf9d201d974</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -116,8 +116,7 @@
     <t>Webdriver and corresponding Firefox browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Add Linux test results
-</t>
+    <t>Delete advance.md</t>
   </si>
   <si>
     <t/>

--- a/Reports/Linux/manual/FireFoxmanualTest.xlsx
+++ b/Reports/Linux/manual/FireFoxmanualTest.xlsx
@@ -105,7 +105,7 @@
     <t>12/22/21 09:03:35</t>
   </si>
   <si>
-    <t>dc6a09580669a478296c8f6d5f682cf9d201d974</t>
+    <t>76ebaf2b7f0ed251d3b47f8a6ef279cd00691a08</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -116,7 +116,7 @@
     <t>Webdriver and corresponding Firefox browser must close successfully.</t>
   </si>
   <si>
-    <t>Delete advance.md</t>
+    <t>Update README.md</t>
   </si>
   <si>
     <t/>
